--- a/src/main/resources/Statistics.xlsx
+++ b/src/main/resources/Statistics.xlsx
@@ -87,7 +87,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
 </styleSheet>
@@ -108,7 +108,7 @@
     <col min="5" max="5" width="27.34375" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="15.0" customHeight="true">
       <c r="A1" t="s" s="1">
         <v>1</v>
       </c>
@@ -125,7 +125,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" ht="30.0" customHeight="true">
       <c r="A2" t="s" s="2">
         <v>6</v>
       </c>

--- a/src/main/resources/Statistics.xlsx
+++ b/src/main/resources/Statistics.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
   <si>
     <t/>
   </si>
@@ -32,10 +32,37 @@
     <t>Название университета</t>
   </si>
   <si>
+    <t>Лингвистика</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>Воронежский Литературно-Переводческий Университет;</t>
+  </si>
+  <si>
     <t>Медицина</t>
   </si>
   <si>
-    <t>Университет</t>
+    <t>4.33</t>
+  </si>
+  <si>
+    <t>Московский Государственный Медицинский Университет;Тамбовский Университет Медицины;Самарский Медицинский Институт;</t>
+  </si>
+  <si>
+    <t>Физика</t>
+  </si>
+  <si>
+    <t>4.54</t>
+  </si>
+  <si>
+    <t>Московский Выдуманный Университет;Московский Придуманный Институт;</t>
+  </si>
+  <si>
+    <t>Математика</t>
+  </si>
+  <si>
+    <t>Казанский Университет Вычислений;</t>
   </si>
 </sst>
 </file>
@@ -95,7 +122,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -125,21 +152,72 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="30.0" customHeight="true">
+    <row r="2" ht="75.0" customHeight="true">
       <c r="A2" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="B2" t="n" s="2">
-        <v>1.5499999523162842</v>
+      <c r="B2" t="s" s="2">
+        <v>7</v>
       </c>
       <c r="C2" t="n" s="2">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="D2" t="n" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E2" t="s" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" ht="75.0" customHeight="true">
+      <c r="A3" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="C3" t="n" s="2">
         <v>3.0</v>
       </c>
-      <c r="E2" t="s" s="2">
+      <c r="D3" t="n" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="E3" t="s" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" ht="75.0" customHeight="true">
+      <c r="A4" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="C4" t="n" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="D4" t="n" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E4" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" ht="75.0" customHeight="true">
+      <c r="A5" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s" s="2">
         <v>7</v>
+      </c>
+      <c r="C5" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="D5" t="n" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E5" t="s" s="2">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/Statistics.xlsx
+++ b/src/main/resources/Statistics.xlsx
@@ -50,6 +50,12 @@
     <t>Московский Государственный Медицинский Университет;Тамбовский Университет Медицины;Самарский Медицинский Институт;</t>
   </si>
   <si>
+    <t>Математика</t>
+  </si>
+  <si>
+    <t>Казанский Университет Вычислений;</t>
+  </si>
+  <si>
     <t>Физика</t>
   </si>
   <si>
@@ -57,12 +63,6 @@
   </si>
   <si>
     <t>Московский Выдуманный Университет;Московский Придуманный Институт;</t>
-  </si>
-  <si>
-    <t>Математика</t>
-  </si>
-  <si>
-    <t>Казанский Университет Вычислений;</t>
   </si>
 </sst>
 </file>
@@ -191,30 +191,30 @@
         <v>12</v>
       </c>
       <c r="B4" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="C4" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="D4" t="n" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E4" t="s" s="2">
         <v>13</v>
-      </c>
-      <c r="C4" t="n" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="D4" t="n" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="E4" t="s" s="2">
-        <v>14</v>
       </c>
     </row>
     <row r="5" ht="75.0" customHeight="true">
       <c r="A5" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="B5" t="s" s="2">
-        <v>7</v>
-      </c>
       <c r="C5" t="n" s="2">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="D5" t="n" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E5" t="s" s="2">
         <v>16</v>

--- a/src/main/resources/Statistics.xlsx
+++ b/src/main/resources/Statistics.xlsx
@@ -32,6 +32,15 @@
     <t>Название университета</t>
   </si>
   <si>
+    <t>Медицина</t>
+  </si>
+  <si>
+    <t>4.33</t>
+  </si>
+  <si>
+    <t>Московский Государственный Медицинский Университет;Тамбовский Университет Медицины;Самарский Медицинский Институт;</t>
+  </si>
+  <si>
     <t>Лингвистика</t>
   </si>
   <si>
@@ -39,15 +48,6 @@
   </si>
   <si>
     <t>Воронежский Литературно-Переводческий Университет;</t>
-  </si>
-  <si>
-    <t>Медицина</t>
-  </si>
-  <si>
-    <t>4.33</t>
-  </si>
-  <si>
-    <t>Московский Государственный Медицинский Университет;Тамбовский Университет Медицины;Самарский Медицинский Институт;</t>
   </si>
   <si>
     <t>Математика</t>
@@ -160,10 +160,10 @@
         <v>7</v>
       </c>
       <c r="C2" t="n" s="2">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="D2" t="n" s="2">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="E2" t="s" s="2">
         <v>8</v>
@@ -177,10 +177,10 @@
         <v>10</v>
       </c>
       <c r="C3" t="n" s="2">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="D3" t="n" s="2">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="E3" t="s" s="2">
         <v>11</v>
@@ -191,7 +191,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C4" t="n" s="2">
         <v>0.0</v>
